--- a/builds.xlsx
+++ b/builds.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Bit width</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>build-dc-2014-05-05_22-51</t>
+  </si>
+  <si>
+    <t>Area AdaptiveDecoder</t>
+  </si>
+  <si>
+    <t>Area Matrix</t>
+  </si>
+  <si>
+    <t>Effective Area</t>
   </si>
 </sst>
 </file>
@@ -368,21 +377,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,19 +403,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>24</v>
       </c>
@@ -415,21 +434,21 @@
       <c r="D2">
         <v>0.49099999999999999</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>57.8</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="G2">
-        <f>1000/F2</f>
+      <c r="J2">
+        <f>1000/I2</f>
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -437,19 +456,29 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.41599999999999998</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="E3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G3">
+        <f>D3+1*(E3+F3)</f>
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="H3">
         <v>51.4</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>28.5</v>
       </c>
-      <c r="G3">
-        <f>1000/F3</f>
+      <c r="J3">
+        <f>1000/I3</f>
         <v>35.087719298245617</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/builds.xlsx
+++ b/builds.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Bit width</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Effective Area</t>
+  </si>
+  <si>
+    <t>build-dc-2014-05-05_23-46</t>
   </si>
 </sst>
 </file>
@@ -377,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +485,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="E4">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G4">
+        <f>D4+3*(E4+F4)</f>
+        <v>1.228</v>
+      </c>
+      <c r="H4">
+        <v>48.4</v>
+      </c>
+      <c r="I4">
+        <v>57</v>
+      </c>
+      <c r="J4">
+        <f>1000/I4</f>
+        <v>17.543859649122808</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/builds.xlsx
+++ b/builds.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Bit width</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>build-dc-2014-05-05_23-46</t>
+  </si>
+  <si>
+    <t>Simon's account</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +522,40 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="E5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G5">
+        <f>D5</f>
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H5">
+        <v>55.5</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <f>1000/I5</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/builds.xlsx
+++ b/builds.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="power vs area" sheetId="1" r:id="rId1"/>
+    <sheet name="power by module" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Bit width</t>
   </si>
@@ -67,15 +68,82 @@
   <si>
     <t>Simon's account</t>
   </si>
+  <si>
+    <t>Decoder Power (mW)</t>
+  </si>
+  <si>
+    <t>Matrix Power (mW)</t>
+  </si>
+  <si>
+    <t>Effective Power</t>
+  </si>
+  <si>
+    <t>70MHz, 24b power breakdown by module</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Adaptive Decoder</t>
+  </si>
+  <si>
+    <t>Initialize Weights</t>
+  </si>
+  <si>
+    <t>Mat4 inverse</t>
+  </si>
+  <si>
+    <t>Mat2 inverse</t>
+  </si>
+  <si>
+    <t>Matrix Engine</t>
+  </si>
+  <si>
+    <t>Channel Estimator</t>
+  </si>
+  <si>
+    <t>Queues</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Submodule</t>
+  </si>
+  <si>
+    <t>TOTAL with power gating</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of initialization modules</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -97,12 +165,229 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,6 +403,2441 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Power vs Area for 1, 2, and 4 parallel decoders</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>24b</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12028192522063247"/>
+                  <c:y val="-2.4890541473824964E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>70 MHz</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11705102760013318"/>
+                  <c:y val="-3.2407450379595873E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>35 MHz</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12086307168770288"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>17 MHz</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'power vs area'!$G$7:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5009999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'power vs area'!$L$7:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170.79999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>20b</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1965952773202345E-3"/>
+                  <c:y val="3.1859812809802185E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>35 MHz</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>17 MHz</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1965952773201538E-3"/>
+                  <c:y val="1.9115887685881194E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>70 MHz</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'power vs area'!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'power vs area'!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>79.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.70000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="259571776"/>
+        <c:axId val="262389328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="259571776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1300"/>
+                  <a:t>Area</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1300" baseline="0"/>
+                  <a:t> (mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1300" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1300" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1300"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262389328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="262389328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1300"/>
+                  <a:t>Power (mW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259571776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t>Power Breakdown by Module</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'power by module'!$B$4:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Adaptive Decoder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Initialize Weights</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Channel Estimator</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Matrix Engine</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Queues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5335341624289895E-2"/>
+                  <c:y val="1.6577694242960302E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5100857715409564E-2"/>
+                  <c:y val="-1.748894441015925E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9002043976012361E-2"/>
+                  <c:y val="-2.024571273803949E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'power by module'!$B$4:$B$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('power by module'!$B$4:$B$5,'power by module'!$B$8:$B$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Adaptive Decoder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Initialize Weights</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Channel Estimator</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Matrix Engine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Queues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'power by module'!$E$4:$E$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('power by module'!$E$4:$E$5,'power by module'!$E$8:$E$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>357186</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,22 +3103,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,20 +3141,29 @@
       <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>24</v>
       </c>
@@ -440,21 +3173,21 @@
       <c r="D2">
         <v>0.49099999999999999</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>57.8</v>
       </c>
-      <c r="I2">
+      <c r="N2">
         <v>100</v>
       </c>
-      <c r="J2">
-        <f>1000/I2</f>
+      <c r="O2">
+        <f>1000/N2</f>
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -474,21 +3207,31 @@
         <f>D3+1*(E3+F3)</f>
         <v>0.73299999999999998</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>51.4</v>
       </c>
-      <c r="I3">
+      <c r="J3">
+        <v>10.9</v>
+      </c>
+      <c r="K3">
+        <v>17.5</v>
+      </c>
+      <c r="L3">
+        <f>I3+1*(J3+K3)</f>
+        <v>79.8</v>
+      </c>
+      <c r="N3">
         <v>28.5</v>
       </c>
-      <c r="J3">
-        <f>1000/I3</f>
+      <c r="O3">
+        <f>1000/N3</f>
         <v>35.087719298245617</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -508,21 +3251,31 @@
         <f>D4+3*(E4+F4)</f>
         <v>1.228</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>48.4</v>
       </c>
-      <c r="I4">
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="L4">
+        <f>I4+3*(J4+K4)</f>
+        <v>132.70000000000002</v>
+      </c>
+      <c r="N4">
         <v>57</v>
       </c>
-      <c r="J4">
-        <f>1000/I4</f>
+      <c r="O4">
+        <f>1000/N4</f>
         <v>17.543859649122808</v>
       </c>
-      <c r="L4" t="s">
+      <c r="Q4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -542,21 +3295,308 @@
         <f>D5</f>
         <v>0.48599999999999999</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>55.5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
+        <v>11.4</v>
+      </c>
+      <c r="K5">
+        <v>17.7</v>
+      </c>
+      <c r="L5">
+        <f>I5</f>
+        <v>55.5</v>
+      </c>
+      <c r="N5">
         <v>14</v>
       </c>
-      <c r="J5">
-        <f>1000/I5</f>
+      <c r="O5">
+        <f>1000/N5</f>
         <v>71.428571428571431</v>
       </c>
-      <c r="L5" t="s">
+      <c r="Q5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0.64</v>
+      </c>
+      <c r="E7">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G6:G8" si="0">D7</f>
+        <v>0.64</v>
+      </c>
+      <c r="I7">
+        <v>80.3</v>
+      </c>
+      <c r="J7">
+        <v>15.1</v>
+      </c>
+      <c r="K7">
+        <v>23.9</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7" si="1">I7</f>
+        <v>80.3</v>
+      </c>
+      <c r="N7">
+        <v>14</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O6:O8" si="2">1000/N7</f>
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0.59</v>
+      </c>
+      <c r="E8">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G8">
+        <f>D8+1*(E8+F8)</f>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I8">
+        <v>65.7</v>
+      </c>
+      <c r="J8">
+        <v>14.6</v>
+      </c>
+      <c r="K8">
+        <v>21.8</v>
+      </c>
+      <c r="L8">
+        <f>I8+1*(J8+K8)</f>
+        <v>102.1</v>
+      </c>
+      <c r="N8">
+        <v>28</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.12</v>
+      </c>
+      <c r="F9">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G9">
+        <f>D9+3*(E9+F9)</f>
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="I9">
+        <v>61.9</v>
+      </c>
+      <c r="J9">
+        <v>14.4</v>
+      </c>
+      <c r="K9">
+        <v>21.9</v>
+      </c>
+      <c r="L9">
+        <f>I9+3*(J9+K9)</f>
+        <v>170.79999999999998</v>
+      </c>
+      <c r="N9">
+        <v>57</v>
+      </c>
+      <c r="O9">
+        <f>1000/N9</f>
+        <v>17.543859649122808</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="E5" s="22">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="11">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="11">
+        <f>23.9+1.5</f>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="26">
+        <f>SUM(E4,E5,E8,E9,E10)</f>
+        <v>78.140000000000015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="18">
+        <f>E12-E5-E8</f>
+        <v>42.310000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>